--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\brain2machineinterface\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C583DA5-84F6-436E-878C-062102F9D927}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D5D62-B835-4E61-BE6C-489D3A980987}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7428" yWindow="-12" windowWidth="7488" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7428" yWindow="-12" windowWidth="7488" windowHeight="10596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="144">
   <si>
     <t>Nr</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Online Recherche EEG</t>
+  </si>
+  <si>
+    <t>Mindstorms Vorbereitungen</t>
   </si>
 </sst>
 </file>
@@ -1370,100 +1373,116 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,6 +1490,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1486,9 +1508,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1532,13 +1551,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,90 +1593,83 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1665,16 +1677,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,8 +1689,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2203,7 +2206,7 @@
   </sheetPr>
   <dimension ref="B2:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
@@ -2222,18 +2225,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2243,18 +2246,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="142">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="95">
         <v>12</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2267,20 +2270,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146">
+      <c r="D4" s="99"/>
+      <c r="E4" s="100">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>4</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="143" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2290,20 +2293,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="122">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="96">
         <v>12</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="147" t="s">
+      <c r="F5" s="96"/>
+      <c r="G5" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2313,21 +2316,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="155">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="77">
         <f>(25*60)*E4</f>
         <v>6000</v>
       </c>
-      <c r="F6" s="156"/>
-      <c r="G6" s="148" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2337,19 +2340,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="157">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="79">
         <f>E6/60</f>
         <v>100</v>
       </c>
-      <c r="F7" s="158"/>
-      <c r="G7" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2359,9 +2362,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2369,11 +2372,11 @@
         <f>(E6/60)/E5</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="G8" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2401,62 +2404,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="151"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="152" t="s">
+      <c r="I10" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="154"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="112" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="130">
+      <c r="D11" s="134">
         <f>E3</f>
         <v>12</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="107" t="s">
+      <c r="F11" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="159" t="s">
+      <c r="H11" s="162"/>
+      <c r="I11" s="84" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2539,26 +2542,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>DD.MM - DD.MM.YYYY</v>
       </c>
-      <c r="AD11" s="162" t="s">
+      <c r="AD11" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="AE11" s="161" t="s">
+      <c r="AE11" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="AF11" s="161" t="s">
+      <c r="AF11" s="86" t="s">
         <v>49</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="109"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="160"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="36" t="s">
         <v>27</v>
       </c>
@@ -2619,30 +2622,30 @@
       <c r="AC12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="161"/>
-      <c r="AF12" s="161"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="110" t="str">
+      <c r="B13" s="114" t="str">
         <f>'Std-A'!A3</f>
         <v>Boris Fuchs</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="119">
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="123">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="96">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
-        <v>63</v>
-      </c>
-      <c r="G13" s="132">
+        <v>68</v>
+      </c>
+      <c r="G13" s="136">
         <f>F13-E13</f>
-        <v>63</v>
-      </c>
-      <c r="H13" s="68"/>
+        <v>68</v>
+      </c>
+      <c r="H13" s="158"/>
       <c r="I13" s="37" t="s">
         <v>51</v>
       </c>
@@ -2730,23 +2733,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="75">
+      <c r="AE13" s="68">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>100</v>
       </c>
-      <c r="AF13" s="77">
+      <c r="AF13" s="81">
         <f>AD14-AE13</f>
-        <v>-37</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="69"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="159"/>
       <c r="I14" s="37" t="s">
         <v>50</v>
       </c>
@@ -2792,7 +2795,7 @@
       </c>
       <c r="T14" s="32">
         <f>'Std-A'!$C$122</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U14" s="32">
         <f>'Std-A'!$C$133</f>
@@ -2832,19 +2835,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="74"/>
+        <v>68</v>
+      </c>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="82"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="69"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="159"/>
       <c r="I15" s="39" t="s">
         <v>25</v>
       </c>
@@ -2890,7 +2893,7 @@
       </c>
       <c r="T15" s="29">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U15" s="29">
         <f t="shared" si="1"/>
@@ -2930,31 +2933,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="79"/>
+        <v>68</v>
+      </c>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="83"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="80" t="str">
+      <c r="B16" s="106" t="str">
         <f>'Std-B'!A3</f>
         <v>Paul Schmutz</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="86">
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="128">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="127">
+      <c r="F16" s="131">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>74</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="103">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>74</v>
       </c>
-      <c r="H16" s="68"/>
+      <c r="H16" s="158"/>
       <c r="I16" s="37" t="s">
         <v>51</v>
       </c>
@@ -3042,23 +3045,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="75">
+      <c r="AE16" s="68">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>100</v>
       </c>
-      <c r="AF16" s="77">
+      <c r="AF16" s="81">
         <f>AD17-AE16</f>
         <v>-26</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="69"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="159"/>
       <c r="I17" s="38" t="s">
         <v>50</v>
       </c>
@@ -3146,17 +3149,17 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="74"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="82"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="69"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="159"/>
       <c r="I18" s="40" t="s">
         <v>25</v>
       </c>
@@ -3244,29 +3247,29 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="78"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="156"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80" t="str">
+      <c r="B19" s="106" t="str">
         <f>'Std-C'!A3</f>
         <v>----</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="86">
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="128">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="147">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="103">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="68"/>
+      <c r="H19" s="158"/>
       <c r="I19" s="41" t="s">
         <v>51</v>
       </c>
@@ -3354,23 +3357,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="75">
+      <c r="AE19" s="68">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="73">
+      <c r="AF19" s="161">
         <f>AD20-AE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="69"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="159"/>
       <c r="I20" s="38" t="s">
         <v>50</v>
       </c>
@@ -3458,17 +3461,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="74"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="82"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="69"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="159"/>
       <c r="I21" s="39" t="s">
         <v>25</v>
       </c>
@@ -3556,29 +3559,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="79"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="83"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="80" t="str">
+      <c r="B22" s="106" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="86">
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="128">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="89">
+      <c r="F22" s="147">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="103">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="68"/>
+      <c r="H22" s="158"/>
       <c r="I22" s="37" t="s">
         <v>51</v>
       </c>
@@ -3666,23 +3669,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="75">
+      <c r="AE22" s="68">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="77">
+      <c r="AF22" s="81">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="69"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="159"/>
       <c r="I23" s="38" t="s">
         <v>50</v>
       </c>
@@ -3770,17 +3773,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="74"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="82"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="69"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="159"/>
       <c r="I24" s="40" t="s">
         <v>25</v>
       </c>
@@ -3868,29 +3871,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="78"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="156"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="80" t="str">
+      <c r="B25" s="106" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="86">
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="128">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="147">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="103">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="68"/>
+      <c r="H25" s="158"/>
       <c r="I25" s="41" t="s">
         <v>51</v>
       </c>
@@ -3978,23 +3981,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="71">
+      <c r="AE25" s="160">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="73">
+      <c r="AF25" s="161">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="69"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="159"/>
       <c r="I26" s="38" t="s">
         <v>50</v>
       </c>
@@ -4082,17 +4085,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="74"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="82"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="95"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="69"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="159"/>
       <c r="I27" s="38" t="s">
         <v>25</v>
       </c>
@@ -4180,8 +4183,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="74"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="82"/>
     </row>
     <row r="28" spans="2:32" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
@@ -4651,16 +4654,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4677,44 +4708,16 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4830,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4888,10 +4891,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4979,10 +4982,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="175" t="s">
@@ -5023,10 +5026,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5108,31 +5111,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>10</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="169"/>
@@ -5160,10 +5163,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5243,31 +5246,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>6</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="169"/>
@@ -5295,10 +5298,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5372,31 +5375,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>5</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
@@ -5424,10 +5427,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5499,31 +5502,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="169"/>
@@ -5551,10 +5554,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5632,31 +5635,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>5</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="169"/>
@@ -5684,10 +5687,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5767,31 +5770,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>6</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="169"/>
@@ -5819,10 +5822,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5894,31 +5897,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="169"/>
@@ -5946,10 +5949,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -6029,31 +6032,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>11</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="169"/>
@@ -6081,10 +6084,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6160,31 +6163,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>5</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="169"/>
@@ -6212,10 +6215,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6271,8 +6274,12 @@
       <c r="A119" s="46">
         <v>4</v>
       </c>
-      <c r="B119" s="42"/>
-      <c r="C119" s="43"/>
+      <c r="B119" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="43">
+        <v>300</v>
+      </c>
       <c r="D119" s="46" t="s">
         <v>17</v>
       </c>
@@ -6301,31 +6308,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
-        <v>11</v>
-      </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+        <v>16</v>
+      </c>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="169"/>
@@ -6353,10 +6360,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6428,31 +6435,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="169"/>
@@ -6480,10 +6487,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6555,31 +6562,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="169"/>
@@ -6607,10 +6614,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6682,31 +6689,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="169"/>
@@ -6734,10 +6741,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6809,31 +6816,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="169"/>
@@ -6861,10 +6868,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6936,31 +6943,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="169"/>
@@ -6988,10 +6995,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -7063,31 +7070,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="169"/>
@@ -7115,10 +7122,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7190,31 +7197,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="169"/>
@@ -7242,10 +7249,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7317,31 +7324,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="169"/>
@@ -7369,10 +7376,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7444,87 +7451,102 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7549,72 +7571,57 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7685,10 +7692,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7780,10 +7787,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="175" t="s">
@@ -7824,10 +7831,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7909,31 +7916,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>10</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="169"/>
@@ -7961,10 +7968,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -8044,31 +8051,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>6</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="169"/>
@@ -8096,10 +8103,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8177,31 +8184,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>6</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
@@ -8229,10 +8236,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8304,31 +8311,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="169"/>
@@ -8356,10 +8363,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8443,31 +8450,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>12</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="169"/>
@@ -8495,10 +8502,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8590,31 +8597,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>8</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="169"/>
@@ -8642,10 +8649,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8717,31 +8724,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="169"/>
@@ -8769,10 +8776,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8856,31 +8863,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>9</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="169"/>
@@ -8908,10 +8915,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8997,31 +9004,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="169"/>
@@ -9049,10 +9056,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -9140,31 +9147,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>11</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="169"/>
@@ -9192,10 +9199,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9267,31 +9274,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="169"/>
@@ -9319,10 +9326,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9394,31 +9401,31 @@
       <c r="E143" s="42"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="169"/>
@@ -9446,10 +9453,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9521,31 +9528,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="169"/>
@@ -9573,10 +9580,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9648,31 +9655,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="169"/>
@@ -9700,10 +9707,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9775,31 +9782,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="169"/>
@@ -9827,10 +9834,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9902,31 +9909,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="169"/>
@@ -9954,10 +9961,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -10029,31 +10036,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="169"/>
@@ -10081,10 +10088,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -10156,31 +10163,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="169"/>
@@ -10208,10 +10215,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10283,115 +10290,74 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10416,44 +10382,85 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10524,10 +10531,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10607,10 +10614,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="175" t="s">
@@ -10651,10 +10658,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10726,31 +10733,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="169"/>
@@ -10778,10 +10785,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10853,31 +10860,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="169"/>
@@ -10905,10 +10912,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10980,31 +10987,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
@@ -11032,10 +11039,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -11107,31 +11114,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="169"/>
@@ -11159,10 +11166,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11234,31 +11241,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="169"/>
@@ -11286,10 +11293,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11361,31 +11368,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="169"/>
@@ -11413,10 +11420,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11488,31 +11495,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="169"/>
@@ -11540,10 +11547,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11615,31 +11622,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="169"/>
@@ -11667,10 +11674,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11742,31 +11749,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="169"/>
@@ -11794,10 +11801,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11869,31 +11876,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="169"/>
@@ -11921,10 +11928,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11996,31 +12003,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="169"/>
@@ -12048,10 +12055,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -12123,31 +12130,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="169"/>
@@ -12175,10 +12182,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12250,31 +12257,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="169"/>
@@ -12302,10 +12309,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12377,31 +12384,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="169"/>
@@ -12429,10 +12436,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12504,31 +12511,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="169"/>
@@ -12556,10 +12563,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12631,31 +12638,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="169"/>
@@ -12683,10 +12690,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12758,31 +12765,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="169"/>
@@ -12810,10 +12817,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12885,31 +12892,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="169"/>
@@ -12937,10 +12944,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -13012,86 +13019,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -13116,73 +13140,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13253,10 +13260,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13336,10 +13343,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="175" t="s">
@@ -13380,10 +13387,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13455,31 +13462,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="169"/>
@@ -13507,10 +13514,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13582,31 +13589,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="169"/>
@@ -13634,10 +13641,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13709,31 +13716,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
@@ -13761,10 +13768,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13836,31 +13843,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="169"/>
@@ -13888,10 +13895,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13963,31 +13970,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="169"/>
@@ -14015,10 +14022,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -14090,31 +14097,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="169"/>
@@ -14142,10 +14149,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -14217,31 +14224,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="169"/>
@@ -14269,10 +14276,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14344,31 +14351,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="169"/>
@@ -14396,10 +14403,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14471,31 +14478,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="169"/>
@@ -14523,10 +14530,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14598,31 +14605,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="169"/>
@@ -14650,10 +14657,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14725,31 +14732,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="169"/>
@@ -14777,10 +14784,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14852,31 +14859,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="169"/>
@@ -14904,10 +14911,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14979,31 +14986,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="169"/>
@@ -15031,10 +15038,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -15106,31 +15113,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="169"/>
@@ -15158,10 +15165,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15233,31 +15240,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="169"/>
@@ -15285,10 +15292,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15360,31 +15367,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="169"/>
@@ -15412,10 +15419,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15487,31 +15494,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="169"/>
@@ -15539,10 +15546,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15614,31 +15621,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="169"/>
@@ -15666,10 +15673,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15741,110 +15748,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15861,57 +15845,80 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15982,10 +15989,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -16065,10 +16072,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="175" t="s">
@@ -16109,10 +16116,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -16184,31 +16191,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="169"/>
@@ -16236,10 +16243,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16311,31 +16318,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="169"/>
@@ -16363,10 +16370,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16438,31 +16445,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
@@ -16490,10 +16497,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16565,31 +16572,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="169"/>
@@ -16617,10 +16624,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16692,31 +16699,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="169"/>
@@ -16744,10 +16751,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16819,31 +16826,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="169"/>
@@ -16871,10 +16878,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16946,31 +16953,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="169"/>
@@ -16998,10 +17005,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -17073,31 +17080,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="169"/>
@@ -17125,10 +17132,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -17200,31 +17207,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="169"/>
@@ -17252,10 +17259,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17327,31 +17334,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="169"/>
@@ -17379,10 +17386,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17454,31 +17461,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="169"/>
@@ -17506,10 +17513,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17581,31 +17588,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="169"/>
@@ -17633,10 +17640,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17708,31 +17715,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="169"/>
@@ -17760,10 +17767,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17835,31 +17842,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="169"/>
@@ -17887,10 +17894,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17962,31 +17969,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="169"/>
@@ -18014,10 +18021,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -18089,31 +18096,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="169"/>
@@ -18141,10 +18148,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -18216,31 +18223,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="169"/>
@@ -18268,10 +18275,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18343,31 +18350,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="169"/>
@@ -18395,10 +18402,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18470,86 +18477,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -18574,73 +18598,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
